--- a/DateBase/orders/Dang Nguyen_2025-5-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-17.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,10 +695,444 @@
       <c r="A31" t="str">
         <v>6</v>
       </c>
+      <c r="C31" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F31" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="C33" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F33" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F39" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>656_大丽花 梅根_undefined_undefined_5stems</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <v>144_高原红_High Plateau Red_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>217_琉璃翠_Dynamic_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F43" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>149_骄傲_Proud_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>154_莫泊_Moab_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>273_蓝调_bluetone_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F47" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>2</v>
+      </c>
+      <c r="C48" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F49" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>3</v>
+      </c>
+      <c r="C50" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F50" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>757_芍药老忠诚_Old Faith_undefined_10stems</v>
+      </c>
+      <c r="F51" t="str">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>733_芍药弗莱明_Fleming_undefined_10stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>758_芍药凯瑟琳_Catherine_undefined_10stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>4</v>
+      </c>
+      <c r="C58" t="str">
+        <v>189_洛神_Mandala_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F58" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>255_九星蓝狐_Ocean Song spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F59" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F60" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>224_折射_Reflex_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F61" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" t="str">
+        <v>259_诺拉_Nora_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F62" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F63" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" xml:space="preserve">
+      <c r="C65" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>49_亚丁_Pasta Rosata_Gerbera L._10stems</v>
+      </c>
+      <c r="F66" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>549_虞美人 混色_Icelandic Poppy_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕深蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">499_小飞燕浅蓝_delphinium ballkleid
+light blue_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F71" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" t="str">
+        <v>505_紫罗兰紫_violet purple_undefined_1bunch</v>
+      </c>
+      <c r="F72" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+      <c r="F73" t="str">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>5</v>
+      </c>
+      <c r="C74" t="str">
+        <v>316_尤加利叶大叶_Eucalyptus Cinerea_undefined_1bunch</v>
+      </c>
+      <c r="F74" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F75" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>326_红继木_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F78" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" t="str">
+        <v>514_松虫草紫_scabiosa purple_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F81" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" t="str">
+        <v>300_白星_White Gypso_ gypsophila_1kg</v>
+      </c>
+      <c r="F82" t="str">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L82"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -756,7 +1190,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>030203013105711027116651028510105101054655200</v>
+        <v>03020301310571102711665102851010510105465520201010151510515859561065225144.510553359343441515105551015525151015510510103</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-17.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-17.xlsx
@@ -1192,6 +1192,9 @@
       <c r="G2" t="str">
         <v>03020301310571102711665102851010510105465520201010151510515859561065225144.510553359343441515105551015525151015510510103</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
